--- a/exports/output_user_data.xlsx
+++ b/exports/output_user_data.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Danh sách User</t>
   </si>
@@ -116,37 +116,34 @@
     <t>id</t>
   </si>
   <si>
+    <t>tejst5</t>
+  </si>
+  <si>
+    <t>test5j@gmail.com</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Phan</t>
+  </si>
+  <si>
+    <t>Đường Ok</t>
+  </si>
+  <si>
+    <t>Tam Thuấn</t>
+  </si>
+  <si>
+    <t>Phúc Thọ</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
     <t>dat2k3</t>
   </si>
   <si>
     <t>dat2k3@gmail.com</t>
-  </si>
-  <si>
-    <t>Đạt</t>
-  </si>
-  <si>
-    <t>Phan</t>
-  </si>
-  <si>
-    <t>Đường Ok</t>
-  </si>
-  <si>
-    <t>Tam Thuấn</t>
-  </si>
-  <si>
-    <t>Phúc Thọ</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>bossday</t>
-  </si>
-  <si>
-    <t>ytbs1vn@gmail.com</t>
-  </si>
-  <si>
-    <t>Dat Do Doc</t>
   </si>
 </sst>
 </file>
@@ -667,7 +664,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2" ht="18.0" customHeight="true">
       <c r="A3" s="4" t="n">
-        <v>2.0</v>
+        <v>52.0</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>
@@ -702,7 +699,7 @@
     </row>
     <row r="4" ht="18.0" customHeight="true">
       <c r="A4" t="n" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" t="s" s="5">
         <v>31</v>
@@ -711,18 +708,28 @@
         <v>32</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="F4" t="n" s="7">
+        <v>36572.0</v>
+      </c>
+      <c r="G4" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s" s="3">
+        <v>30</v>
+      </c>
       <c r="K4" t="n" s="6">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/exports/output_user_data.xlsx
+++ b/exports/output_user_data.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Danh sách User</t>
   </si>
@@ -116,6 +116,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>659df980-c79b-4d22-a6de-35eca28421af</t>
+  </si>
+  <si>
     <t>tejst5</t>
   </si>
   <si>
@@ -140,10 +143,82 @@
     <t>Hà Nội</t>
   </si>
   <si>
-    <t>dat2k3</t>
-  </si>
-  <si>
-    <t>dat2k3@gmail.com</t>
+    <t>04d37539-e177-46e3-942f-fc6672aca463</t>
+  </si>
+  <si>
+    <t>mailkhoiphuc2k832</t>
+  </si>
+  <si>
+    <t>mailkhoiphuc2k372@gmail.com</t>
+  </si>
+  <si>
+    <t>30d28b3a-767e-4bbb-8a8e-b31a0f15a8e4</t>
+  </si>
+  <si>
+    <t>mailkhoiphuc2k32</t>
+  </si>
+  <si>
+    <t>mailkhoiphuc2k32@gmail.com</t>
+  </si>
+  <si>
+    <t>f6c58736-ca95-4cd1-9655-07fe5b09705f</t>
+  </si>
+  <si>
+    <t>mailkhoiphuc2k31</t>
+  </si>
+  <si>
+    <t>mailkhoiphuc2k31@gmail.com</t>
+  </si>
+  <si>
+    <t>f6e5c269-aee6-4d70-a6f1-b1a47293c1e2</t>
+  </si>
+  <si>
+    <t>mailkhoiphuc2k3</t>
+  </si>
+  <si>
+    <t>mailkhoiphuc2k3@gmail.com</t>
+  </si>
+  <si>
+    <t>291d9151-307b-4d49-bdd1-ffb8658acecd</t>
+  </si>
+  <si>
+    <t>bossday3</t>
+  </si>
+  <si>
+    <t>datphan2k3vn3@gmail.com</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t>Nè</t>
+  </si>
+  <si>
+    <t>6d3fae31-1360-4176-a348-2fa77bc0da26</t>
+  </si>
+  <si>
+    <t>bossday2</t>
+  </si>
+  <si>
+    <t>ytbs1vndd@gmail.com</t>
+  </si>
+  <si>
+    <t>Dat Do Doc</t>
+  </si>
+  <si>
+    <t>e1b6587a-ec61-41dc-9414-e882ad00b34c</t>
+  </si>
+  <si>
+    <t>bossday</t>
+  </si>
+  <si>
+    <t>bossday@gmail.com</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -590,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD479A5-20EB-DD47-9215-AD9937D57F0F}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
@@ -663,73 +738,273 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2" ht="18.0" customHeight="true">
-      <c r="A3" s="4" t="n">
-        <v>52.0</v>
+      <c r="A3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7" t="n">
         <v>36572.0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="6" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="4" ht="18.0" customHeight="true">
-      <c r="A4" t="n" s="4">
-        <v>2.0</v>
+      <c r="A4" t="s" s="4">
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n" s="7">
         <v>36572.0</v>
       </c>
       <c r="G4" t="s" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" t="n" s="6">
         <v>2.0</v>
+      </c>
+    </row>
+    <row r="5" ht="18.0" customHeight="true">
+      <c r="A5" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="F5" t="n" s="7">
+        <v>36572.0</v>
+      </c>
+      <c r="G5" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="K5" t="n" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6" ht="18.0" customHeight="true">
+      <c r="A6" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="F6" t="n" s="7">
+        <v>36572.0</v>
+      </c>
+      <c r="G6" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="K6" t="n" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7" ht="18.0" customHeight="true">
+      <c r="A7" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="F7" t="n" s="7">
+        <v>36572.0</v>
+      </c>
+      <c r="G7" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="K7" t="n" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8" ht="18.0" customHeight="true">
+      <c r="A8" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="F8" t="n" s="7">
+        <v>36572.0</v>
+      </c>
+      <c r="G8" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="K8" t="n" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9" ht="18.0" customHeight="true">
+      <c r="A9" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="F9" t="n" s="7">
+        <v>36572.0</v>
+      </c>
+      <c r="G9" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="K9" t="n" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10" ht="18.0" customHeight="true">
+      <c r="A10" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" t="n" s="6">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/exports/output_user_data.xlsx
+++ b/exports/output_user_data.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Danh sách User</t>
   </si>
@@ -116,109 +116,19 @@
     <t>id</t>
   </si>
   <si>
-    <t>659df980-c79b-4d22-a6de-35eca28421af</t>
-  </si>
-  <si>
-    <t>tejst5</t>
-  </si>
-  <si>
-    <t>test5j@gmail.com</t>
-  </si>
-  <si>
-    <t>Đạt</t>
+    <t>cd4c903c-ac8f-4aa8-b20f-ea60c1b45678</t>
+  </si>
+  <si>
+    <t>bossday</t>
+  </si>
+  <si>
+    <t>ytbs1vndd@gmail.com</t>
+  </si>
+  <si>
+    <t>Dat Do Doc</t>
   </si>
   <si>
     <t>Phan</t>
-  </si>
-  <si>
-    <t>Đường Ok</t>
-  </si>
-  <si>
-    <t>Tam Thuấn</t>
-  </si>
-  <si>
-    <t>Phúc Thọ</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>04d37539-e177-46e3-942f-fc6672aca463</t>
-  </si>
-  <si>
-    <t>mailkhoiphuc2k832</t>
-  </si>
-  <si>
-    <t>mailkhoiphuc2k372@gmail.com</t>
-  </si>
-  <si>
-    <t>30d28b3a-767e-4bbb-8a8e-b31a0f15a8e4</t>
-  </si>
-  <si>
-    <t>mailkhoiphuc2k32</t>
-  </si>
-  <si>
-    <t>mailkhoiphuc2k32@gmail.com</t>
-  </si>
-  <si>
-    <t>f6c58736-ca95-4cd1-9655-07fe5b09705f</t>
-  </si>
-  <si>
-    <t>mailkhoiphuc2k31</t>
-  </si>
-  <si>
-    <t>mailkhoiphuc2k31@gmail.com</t>
-  </si>
-  <si>
-    <t>f6e5c269-aee6-4d70-a6f1-b1a47293c1e2</t>
-  </si>
-  <si>
-    <t>mailkhoiphuc2k3</t>
-  </si>
-  <si>
-    <t>mailkhoiphuc2k3@gmail.com</t>
-  </si>
-  <si>
-    <t>291d9151-307b-4d49-bdd1-ffb8658acecd</t>
-  </si>
-  <si>
-    <t>bossday3</t>
-  </si>
-  <si>
-    <t>datphan2k3vn3@gmail.com</t>
-  </si>
-  <si>
-    <t>Admin 2</t>
-  </si>
-  <si>
-    <t>Nè</t>
-  </si>
-  <si>
-    <t>6d3fae31-1360-4176-a348-2fa77bc0da26</t>
-  </si>
-  <si>
-    <t>bossday2</t>
-  </si>
-  <si>
-    <t>ytbs1vndd@gmail.com</t>
-  </si>
-  <si>
-    <t>Dat Do Doc</t>
-  </si>
-  <si>
-    <t>e1b6587a-ec61-41dc-9414-e882ad00b34c</t>
-  </si>
-  <si>
-    <t>bossday</t>
-  </si>
-  <si>
-    <t>bossday@gmail.com</t>
-  </si>
-  <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -665,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD479A5-20EB-DD47-9215-AD9937D57F0F}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
@@ -753,257 +663,12 @@
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="7" t="n">
-        <v>36572.0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="6" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4" ht="18.0" customHeight="true">
-      <c r="A4" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="F4" t="n" s="7">
-        <v>36572.0</v>
-      </c>
-      <c r="G4" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="K4" t="n" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5" ht="18.0" customHeight="true">
-      <c r="A5" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="F5" t="n" s="7">
-        <v>36572.0</v>
-      </c>
-      <c r="G5" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="K5" t="n" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6" ht="18.0" customHeight="true">
-      <c r="A6" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="F6" t="n" s="7">
-        <v>36572.0</v>
-      </c>
-      <c r="G6" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="K6" t="n" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7" ht="18.0" customHeight="true">
-      <c r="A7" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="F7" t="n" s="7">
-        <v>36572.0</v>
-      </c>
-      <c r="G7" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="K7" t="n" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8" ht="18.0" customHeight="true">
-      <c r="A8" t="s" s="4">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="F8" t="n" s="7">
-        <v>36572.0</v>
-      </c>
-      <c r="G8" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="K8" t="n" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9" ht="18.0" customHeight="true">
-      <c r="A9" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="F9" t="n" s="7">
-        <v>36572.0</v>
-      </c>
-      <c r="G9" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="J9" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="K9" t="n" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10" ht="18.0" customHeight="true">
-      <c r="A10" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>57</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" t="n" s="6">
         <v>0.0</v>
       </c>
     </row>
